--- a/Employee_Reports35/Jeffrey Sayson Bagatua Q0536.xlsx
+++ b/Employee_Reports35/Jeffrey Sayson Bagatua Q0536.xlsx
@@ -35,7 +35,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -46,12 +46,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="001F4E78"/>
         <bgColor rgb="001F4E78"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
-        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -73,7 +67,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -82,9 +76,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -452,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,15 +452,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="73" customWidth="1" min="2" max="2"/>
+    <col width="33" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
     <col width="13" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="9" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -572,11 +563,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +612,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +661,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +710,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +759,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -781,92 +772,6 @@
         </is>
       </c>
       <c r="K7" s="3" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>Endangered by Electricity A safety Training (SOPs)</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr"/>
-      <c r="D8" s="4" t="inlineStr"/>
-      <c r="E8" s="4" t="inlineStr"/>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>24-Jul-2024</t>
-        </is>
-      </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t>24-Jul-2025</t>
-        </is>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>-102</v>
-      </c>
-      <c r="I8" s="4" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J8" s="4" t="inlineStr">
-        <is>
-          <t>NOT VALID</t>
-        </is>
-      </c>
-      <c r="K8" s="4" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Stacker Crane Aisle Annual Maintenance And Megger Test Procedure (SOPs)</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-003</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>23-Oct-2025</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>23-Oct-2026</t>
-        </is>
-      </c>
-      <c r="H9" s="3" t="n">
-        <v>354</v>
-      </c>
-      <c r="I9" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J9" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K9" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Employee_Reports35/Jeffrey Sayson Bagatua Q0536.xlsx
+++ b/Employee_Reports35/Jeffrey Sayson Bagatua Q0536.xlsx
@@ -563,11 +563,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -661,11 +661,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -710,11 +710,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -759,11 +759,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
